--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a75_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a75_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-601.502244530421</v>
+        <v>-152.69155300104572</v>
       </c>
       <c r="C2">
-        <v>3.7800968742967814e-14</v>
+        <v>0.08247937813401086</v>
       </c>
       <c r="D2">
-        <v>4.176218928</v>
+        <v>401.126685985</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-608.5309886553532</v>
+        <v>-149.80697366092807</v>
       </c>
       <c r="C3">
-        <v>5.604653165131654e-14</v>
+        <v>0.05280934461389653</v>
       </c>
       <c r="D3">
-        <v>1.848514816</v>
+        <v>234.581863023</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-620.2767067883783</v>
+        <v>-151.1044281555749</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0.0996243877259803</v>
       </c>
       <c r="D4">
-        <v>1.922151957</v>
+        <v>356.174749407</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-623.0162878029555</v>
+        <v>-150.7026638682956</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0.08533525115220324</v>
       </c>
       <c r="D5">
-        <v>1.89866544</v>
+        <v>921.080605684</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-600.2778595374714</v>
+        <v>-150.52128312101613</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0.09977938483127843</v>
       </c>
       <c r="D6">
-        <v>1.881320253</v>
+        <v>248.708531424</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-603.1508915911172</v>
+        <v>-149.30562672348597</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0.08055856980811969</v>
       </c>
       <c r="D7">
-        <v>1.780957699</v>
+        <v>471.745332728</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-593.4398910548932</v>
+        <v>-148.661520255107</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0.09939557762595787</v>
       </c>
       <c r="D8">
-        <v>1.863842286</v>
+        <v>277.496037313</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-607.7350938167094</v>
+        <v>-150.18260019047344</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.09070489220644856</v>
       </c>
       <c r="D9">
-        <v>1.796361413</v>
+        <v>579.361915905</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-613.0660095771071</v>
+        <v>-151.08461268611245</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0.030069965494367006</v>
       </c>
       <c r="D10">
-        <v>1.929707388</v>
+        <v>609.511305813</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-590.2012633227611</v>
+        <v>-146.9222127693745</v>
       </c>
       <c r="C11">
-        <v>1.9262384679008267e-14</v>
+        <v>0.09681741853795965</v>
       </c>
       <c r="D11">
-        <v>1.890383963</v>
+        <v>679.665788498</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
